--- a/CRISPR_Cluster_Analysis_CRR2_Rubus.xlsx
+++ b/CRISPR_Cluster_Analysis_CRR2_Rubus.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/memn/Desktop/Master Arbeit/ZHAW-Master-Arbeit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED1033-66ED-974A-9318-9DC2955A8C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -619,8 +625,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,15 +685,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -729,7 +743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,9 +775,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,6 +827,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -970,14 +1020,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1050,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1067,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1084,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1101,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1118,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1135,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1161,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1213,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1245,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1271,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1297,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1317,7 +1372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1337,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1357,7 +1412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1383,7 +1438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1409,7 +1464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1435,7 +1490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1461,7 +1516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1484,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1507,7 +1562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1530,7 +1585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1553,7 +1608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1576,7 +1631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1599,7 +1654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1622,7 +1677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1648,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1703,7 +1758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1729,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1758,7 +1813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1807,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1827,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1847,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1867,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1887,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1907,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1927,7 +1982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1950,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1970,7 +2025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1990,7 +2045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2024,7 +2079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2041,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2058,7 +2113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2075,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2095,7 +2150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2115,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2135,7 +2190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2158,7 +2213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2181,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2204,7 +2259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2224,7 +2279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2244,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2264,7 +2319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2296,7 +2351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2328,7 +2383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2360,7 +2415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2392,7 +2447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2424,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2459,7 +2514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2494,7 +2549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2526,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2561,7 +2616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2596,7 +2651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2630,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2647,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2664,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2681,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2698,7 +2753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2715,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2735,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2752,7 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2769,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2786,7 +2841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2812,7 +2867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2829,7 +2884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2846,7 +2901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2863,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2880,7 +2935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2897,7 +2952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2914,7 +2969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2931,7 +2986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2948,7 +3003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2965,7 +3020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2982,7 +3037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2999,7 +3054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3016,7 +3071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3033,7 +3088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3050,7 +3105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3067,7 +3122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3084,7 +3139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3101,7 +3156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3115,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3129,7 +3184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3143,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3157,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3171,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3185,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3199,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3213,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3227,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3241,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3255,7 +3310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3269,7 +3324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3283,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3297,7 +3352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3311,7 +3366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3339,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3353,7 +3408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3367,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3381,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3395,7 +3450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3409,7 +3464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3423,7 +3478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3451,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3465,7 +3520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3479,7 +3534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3493,7 +3548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3507,7 +3562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3530,7 +3585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3553,7 +3608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3570,7 +3625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3593,7 +3648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3616,7 +3671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3639,7 +3694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3653,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3667,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3696,7 +3751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3710,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3724,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3738,7 +3793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3752,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3766,7 +3821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3780,7 +3835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3794,7 +3849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3811,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3828,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3845,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3862,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3879,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3899,7 +3954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3919,7 +3974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3939,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3962,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3985,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4008,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4031,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4054,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4077,7 +4132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4100,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4123,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4146,7 +4201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4169,7 +4224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4192,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4215,7 +4270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4238,7 +4293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4261,7 +4316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4284,7 +4339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4307,7 +4362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4330,7 +4385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4353,7 +4408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4376,7 +4431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4399,7 +4454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4428,7 +4483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4442,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4456,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4470,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4484,7 +4539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4498,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4512,7 +4567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4526,7 +4581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4540,7 +4595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4554,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4568,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4596,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
